--- a/dados/wemg_.xlsx
+++ b/dados/wemg_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1165626720#searchVariation=MLB21562641&amp;position=45&amp;search_layout=grid&amp;type=product&amp;tracking_id=95dab493-ccca-4d30-a6d2-d8db6a926ea3</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1165626720#searchVariation=MLB21562641&amp;position=44&amp;search_layout=grid&amp;type=product&amp;tracking_id=a8149985-e671-49c4-9f66-79445fc51396</t>
         </is>
       </c>
     </row>
@@ -496,17 +516,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:1165626720#searchVariation=MLB27685629&amp;position=37&amp;search_layout=grid&amp;type=product&amp;tracking_id=c55396f9-ae36-47bf-a718-47f37c4898aa</t>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:1165626720#searchVariation=MLB27685629&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=75974dfc-751d-4169-a163-00ed9f3cf548</t>
         </is>
       </c>
     </row>
@@ -521,17 +547,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:1165626720#searchVariation=MLB28722231&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=c58f950c-3336-45ce-8759-c054b795a7bd</t>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:1165626720#searchVariation=MLB28722231&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=ca8e3fdd-4279-4982-948e-579f8729449e</t>
         </is>
       </c>
     </row>
@@ -546,17 +578,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>FONTE 40A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:1165626720#searchVariation=MLB21621306&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=148681da-0655-40b5-8659-cc2af130db0d</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:1165626720#searchVariation=MLB21621306&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=5126fbcf-05ab-4228-8346-ef45f807253f</t>
         </is>
       </c>
     </row>
@@ -571,17 +613,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3715575332-fonte-carregador-de-bateria-jfa-70a-lite-slim-bivolt-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd3d678e0-0717-4b0e-af8b-434d4a65ee29</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3715575332-fonte-carregador-de-bateria-jfa-70a-lite-slim-bivolt-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc0f7b93b-50af-43cd-9269-a325b03cbe9c</t>
         </is>
       </c>
     </row>
@@ -596,17 +648,23 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:1165626720#searchVariation=MLB27687422&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=b36fed52-8729-4d7f-a42c-716f24867c6e</t>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:1165626720#searchVariation=MLB27687422&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=0a55ba12-2aaf-47b8-8be7-eb13713785bb</t>
         </is>
       </c>
     </row>

--- a/dados/wemg_.xlsx
+++ b/dados/wemg_.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -473,25 +473,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>422.93</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,28 +497,32 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1165626720#searchVariation=MLB21562641&amp;position=44&amp;search_layout=grid&amp;type=product&amp;tracking_id=a8149985-e671-49c4-9f66-79445fc51396</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:1165626720#searchVariation=MLB27685629&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=52ce9769-6bf9-4f4e-a044-331ddc381e02</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>422.93</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:1165626720#searchVariation=MLB27685629&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=75974dfc-751d-4169-a163-00ed9f3cf548</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1165626720#searchVariation=MLB21562641&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=a90d6219-75f4-424a-982e-d487a7efeac1</t>
         </is>
       </c>
     </row>
@@ -542,13 +542,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>62</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:1165626720#searchVariation=MLB28722231&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=ca8e3fdd-4279-4982-948e-579f8729449e</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:1165626720#searchVariation=MLB28722231&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=593871b3-76bd-485e-9f91-add0557bc4e7</t>
         </is>
       </c>
     </row>
@@ -573,14 +573,14 @@
           <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>402.79</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>FONTE 40A</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -588,7 +588,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:1165626720#searchVariation=MLB21621306&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=5126fbcf-05ab-4228-8346-ef45f807253f</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:1165626720#searchVariation=MLB21621306&amp;position=37&amp;search_layout=grid&amp;type=product&amp;tracking_id=593871b3-76bd-485e-9f91-add0557bc4e7</t>
         </is>
       </c>
     </row>
@@ -608,14 +608,14 @@
           <t>Fonte Carregador De Bateria Jfa 70a Lite Slim Bivolt</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>430.25</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>FONTE 70A LITE</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -623,7 +623,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3715575332-fonte-carregador-de-bateria-jfa-70a-lite-slim-bivolt-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc0f7b93b-50af-43cd-9269-a325b03cbe9c</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3715575332-fonte-carregador-de-bateria-jfa-70a-lite-slim-bivolt-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Df29572fc-c6b9-42bc-b733-b5c0f357a615</t>
         </is>
       </c>
     </row>
@@ -643,13 +643,13 @@
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>77.90000000000001</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:1165626720#searchVariation=MLB27687422&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=0a55ba12-2aaf-47b8-8be7-eb13713785bb</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:1165626720#searchVariation=MLB27687422&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=ca95336f-bc3d-4d62-892f-b63888963193</t>
         </is>
       </c>
     </row>
